--- a/data/sentiment_spotato.xlsx
+++ b/data/sentiment_spotato.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Dropbox (Bioversity CR)/Rcode/sweetpotato-cip-tricot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2229D937-CB3F-B84D-8E9E-8EF471AB2ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CD70C5-2725-954E-BC6B-8D97C591EB26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24760" windowHeight="14320" xr2:uid="{6FB10ACD-144F-CE4C-B2EE-2320C3C1727E}"/>
+    <workbookView xWindow="5860" yWindow="460" windowWidth="24760" windowHeight="14320" xr2:uid="{6FB10ACD-144F-CE4C-B2EE-2320C3C1727E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,18 +44,6 @@
     <t>Kakamega</t>
   </si>
   <si>
-    <t>Naspot 8</t>
-  </si>
-  <si>
-    <t>Naspot 10 (Kabode)</t>
-  </si>
-  <si>
-    <t>Naspot 12</t>
-  </si>
-  <si>
-    <t>Naspot 13</t>
-  </si>
-  <si>
     <t>CIP442162</t>
   </si>
   <si>
@@ -89,9 +77,6 @@
     <t>PGN16030-30</t>
   </si>
   <si>
-    <t>PGA14011-24</t>
-  </si>
-  <si>
     <t>PGN16092-6</t>
   </si>
   <si>
@@ -101,21 +86,6 @@
     <t>PGN16024-27</t>
   </si>
   <si>
-    <t>Apomuden</t>
-  </si>
-  <si>
-    <t>Obare</t>
-  </si>
-  <si>
-    <t>Tu-Purple (Diedi)</t>
-  </si>
-  <si>
-    <t>Nan</t>
-  </si>
-  <si>
-    <t>Ligri</t>
-  </si>
-  <si>
     <t>Sweet</t>
   </si>
   <si>
@@ -158,9 +128,6 @@
     <t>High dry matter/hard/heavy</t>
   </si>
   <si>
-    <t>PG173136-N1</t>
-  </si>
-  <si>
     <t>Yam taste/flavour</t>
   </si>
   <si>
@@ -177,6 +144,39 @@
   </si>
   <si>
     <t>Hard/crunchy/rough</t>
+  </si>
+  <si>
+    <t>NASPOT 8</t>
+  </si>
+  <si>
+    <t>NASPOT 10 (Kabode)</t>
+  </si>
+  <si>
+    <t>NASPOT 12</t>
+  </si>
+  <si>
+    <t>NASPOT 13</t>
+  </si>
+  <si>
+    <t>CRI-Apomuden</t>
+  </si>
+  <si>
+    <t>CRI-Ligri</t>
+  </si>
+  <si>
+    <t>SARI-Nan</t>
+  </si>
+  <si>
+    <t>SARI-Nyumingre (Obare)</t>
+  </si>
+  <si>
+    <t>SARI-Diedi (Tu-Purple)</t>
+  </si>
+  <si>
+    <t>PG17136-N1</t>
+  </si>
+  <si>
+    <t>PGN14011-24</t>
   </si>
 </sst>
 </file>
@@ -566,14 +566,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB04C1ED-4DCC-3846-AC9F-46806868B77C}">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="1"/>
     <col min="4" max="4" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -596,69 +596,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="T1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -667,19 +667,19 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
@@ -700,13 +700,13 @@
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -732,16 +732,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -765,16 +765,16 @@
         <v>1</v>
       </c>
       <c r="O3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1">
         <v>0</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -797,22 +797,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -862,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -886,13 +886,13 @@
         <v>1</v>
       </c>
       <c r="L5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -939,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -957,10 +957,10 @@
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
@@ -969,13 +969,13 @@
         <v>1</v>
       </c>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>0</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="1">
         <v>0</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1057,19 +1057,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1078,13 +1078,13 @@
         <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -1113,28 +1113,28 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1143,16 +1143,16 @@
         <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
@@ -1178,28 +1178,28 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="1">
         <v>0</v>
@@ -1243,16 +1243,16 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -1303,21 +1303,21 @@
         <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -1373,16 +1373,16 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -1433,12 +1433,12 @@
         <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1568,13 +1568,13 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>0</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -1763,10 +1763,10 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -1958,10 +1958,10 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -2023,13 +2023,13 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="1">
         <v>0</v>
@@ -2088,13 +2088,13 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -2124,10 +2124,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="1">
         <v>0</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="1">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="S25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="1">
         <v>0</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -2348,13 +2348,13 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="1">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="1">
         <v>0</v>
@@ -2412,24 +2412,27 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U31">
+    <sortCondition ref="A1:A31"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2656,18 +2659,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37C54397-C780-4E51-BEE9-423DB7506085}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B5D4CB4-DE02-4050-B5C8-F68BED50456F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B5D4CB4-DE02-4050-B5C8-F68BED50456F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37C54397-C780-4E51-BEE9-423DB7506085}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
